--- a/Scripts/parameters_output_27446.xlsx
+++ b/Scripts/parameters_output_27446.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>3927546.901507873</v>
+        <v>3807997.356260973</v>
       </c>
       <c r="H7">
-        <v>54060.4614186571</v>
+        <v>63463.45079309941</v>
       </c>
       <c r="I7">
-        <v>3.39</v>
+        <v>2.43</v>
       </c>
       <c r="J7">
-        <v>133210.8970586449</v>
+        <v>92512.31672135441</v>
       </c>
     </row>
     <row r="8" spans="1:10">
